--- a/SMO/TemplateExcel/BM_01D.xlsx
+++ b/SMO/TemplateExcel/BM_01D.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C6FA80-BCCD-4F14-A0A7-B3D3C4060946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AC72B-86C5-4F93-B05E-08048A20B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68390DEB-0F09-415E-91F1-721B3594EE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,32 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tran Thang</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D14579E8-16D3-4AE5-A8CE-DF5ECFA01768}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tran Thang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tham số chọn theo Năm và kịch bản</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>BIỂU MẪU KẾ HOẠCH ĐẦU TƯ XDCB VÀ TTB NĂM KẾ HOẠCH</t>
-  </si>
-  <si>
-    <t>DANH MỤC ĐẦU TƯ</t>
-  </si>
-  <si>
-    <t>GIÁ TRỊ KHỐI LƯỢNG CÔNG VIỆC HOÀN THÀNH</t>
-  </si>
-  <si>
-    <t>GIÁ TRỊ GIẢI NGÂN</t>
-  </si>
-  <si>
-    <t>TRONG ĐÓ: NGUỒN VCSH</t>
-  </si>
-  <si>
-    <t>TỔNG MỨC ĐT DỰ ÁN</t>
-  </si>
-  <si>
-    <t>TỔNG MỨC</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>9T ĐN</t>
   </si>
@@ -68,20 +78,68 @@
     <t>UTH</t>
   </si>
   <si>
-    <t>THỰC HIỆN LŨY KẾ ĐẾN CUỐI NĂM</t>
-  </si>
-  <si>
     <t>%TH/KH</t>
   </si>
   <si>
-    <t>GÍA TRỊ TS ĐÃ HÌNH THÀNH ĐƯA VÀO SỬ DỤNG</t>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN NHIÊN LIỆU HÀNG KHÔNG VIỆT NAM (SKYPEC)</t>
+  </si>
+  <si>
+    <t>(Áp dụng cho Cty TNHH MTV TCT góp 100% VĐL)</t>
+  </si>
+  <si>
+    <t>Mẫu 01D</t>
+  </si>
+  <si>
+    <t>BÁO CÁO ƯỚC TÌNH HÌNH THỰC HIỆN ĐẦU TƯ VÀO CÁC DỰ ÁN HÌNH THÀNH TSCĐ UTH 2023</t>
+  </si>
+  <si>
+    <t>Stt</t>
+  </si>
+  <si>
+    <t>Danh mục đầu tư</t>
+  </si>
+  <si>
+    <t>Tổng mức ĐT dự án</t>
+  </si>
+  <si>
+    <t>Giá trị khối lượng công việc hoàn thành</t>
+  </si>
+  <si>
+    <t>Giá trị giải ngân</t>
+  </si>
+  <si>
+    <t>Giá trị TS đã hình thành đưa vào sử dụng</t>
+  </si>
+  <si>
+    <t>Tổng mức</t>
+  </si>
+  <si>
+    <t>Trong đó: Từ nguồn VCSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">%TH/KH </t>
+  </si>
+  <si>
+    <t>Thực hiện luỹ kế đến cuối năm</t>
+  </si>
+  <si>
+    <t>10=8/6</t>
+  </si>
+  <si>
+    <t>15=13/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,24 +149,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,12 +233,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,17 +256,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -162,100 +264,71 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8E349087-2BA6-4463-9F85-61543C07BD15}"/>
+    <cellStyle name="Normal 7" xfId="1" xr:uid="{4C1E5856-750C-4168-AD0C-D03178306E1A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,17 +659,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2524F08A-3DA2-4911-B492-87372BC7A54F}">
-  <dimension ref="A2:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2524F08A-3DA2-4911-B492-87372BC7A54F}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
@@ -605,124 +678,281 @@
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="M8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10" t="s">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="2" t="s">
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="9">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="L10" s="9">
+        <v>13</v>
+      </c>
+      <c r="M10" s="9">
+        <v>14</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
+  <mergeCells count="20">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SMO/TemplateExcel/BM_01D.xlsx
+++ b/SMO/TemplateExcel/BM_01D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AC72B-86C5-4F93-B05E-08048A20B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D776D4DF-FF9B-40D9-8A02-855DFF2345D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68390DEB-0F09-415E-91F1-721B3594EE8F}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>9T ĐN</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>15=13/11</t>
+  </si>
+  <si>
+    <t>Đơn vị tính: VND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +225,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,13 +279,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -299,21 +317,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -322,6 +325,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -662,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2524F08A-3DA2-4911-B492-87372BC7A54F}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,36 +741,36 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -760,93 +781,98 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="M6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="10" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -896,48 +922,41 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
+  <mergeCells count="21">
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
@@ -951,6 +970,14 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
